--- a/Data/Datawrapper_Codes.xlsx
+++ b/Data/Datawrapper_Codes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/LENA_Project/lena_juni2021/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{F974F407-8868-48F6-900C-8A3DF65F4D47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{82C12CE2-8502-470A-9C52-E5AF66AFD1FC}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="8_{F974F407-8868-48F6-900C-8A3DF65F4D47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FE86A22B-B6B5-4D97-A545-169DE28CAB4E}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{952992A2-AB5A-41C5-8BF4-315BB967E718}"/>
   </bookViews>
@@ -34,20 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Vorlage</t>
   </si>
   <si>
-    <t>Verhuellungsverbot</t>
-  </si>
-  <si>
-    <t>E-ID-Gesetz</t>
-  </si>
-  <si>
-    <t>Indonesien</t>
-  </si>
-  <si>
     <t>gmd_de</t>
   </si>
   <si>
@@ -66,58 +57,19 @@
     <t>kt_it</t>
   </si>
   <si>
-    <t>bL14o</t>
-  </si>
-  <si>
-    <t>526qC</t>
-  </si>
-  <si>
-    <t>HGSsX</t>
-  </si>
-  <si>
-    <t>vP6Cl</t>
-  </si>
-  <si>
-    <t>w9ACT</t>
-  </si>
-  <si>
-    <t>v4CXE</t>
-  </si>
-  <si>
-    <t>SKmDi</t>
-  </si>
-  <si>
-    <t>47vDf</t>
-  </si>
-  <si>
-    <t>sDe2K</t>
-  </si>
-  <si>
-    <t>xLYEN</t>
-  </si>
-  <si>
-    <t>2ORjt</t>
-  </si>
-  <si>
-    <t>eMIlU</t>
-  </si>
-  <si>
-    <t>Td5XW</t>
-  </si>
-  <si>
-    <t>0hpY4</t>
-  </si>
-  <si>
-    <t>xNt1d</t>
-  </si>
-  <si>
-    <t>EOz9b</t>
-  </si>
-  <si>
-    <t>CuISE</t>
-  </si>
-  <si>
-    <t>mwm4x</t>
+    <t>Trinkwasser</t>
+  </si>
+  <si>
+    <t>Pestizide</t>
+  </si>
+  <si>
+    <t>Covid-19</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>Terrorismus</t>
   </si>
 </sst>
 </file>
@@ -479,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C2CE84-04D5-4193-8F10-FC8742B9DD1B}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -497,91 +449,47 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Datawrapper_Codes.xlsx
+++ b/Data/Datawrapper_Codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/LENA_Project/lena_juni2021/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="8_{F974F407-8868-48F6-900C-8A3DF65F4D47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FE86A22B-B6B5-4D97-A545-169DE28CAB4E}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="8_{F974F407-8868-48F6-900C-8A3DF65F4D47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B62E491B-37B6-4748-9588-A0153C641221}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{952992A2-AB5A-41C5-8BF4-315BB967E718}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Vorlage</t>
   </si>
@@ -70,6 +70,96 @@
   </si>
   <si>
     <t>Terrorismus</t>
+  </si>
+  <si>
+    <t>dZlmd</t>
+  </si>
+  <si>
+    <t>uH8Yf</t>
+  </si>
+  <si>
+    <t>kea47</t>
+  </si>
+  <si>
+    <t>thYs7</t>
+  </si>
+  <si>
+    <t>n3uat</t>
+  </si>
+  <si>
+    <t>8sLNy</t>
+  </si>
+  <si>
+    <t>Not7z</t>
+  </si>
+  <si>
+    <t>4EVgM</t>
+  </si>
+  <si>
+    <t>lYJhR</t>
+  </si>
+  <si>
+    <t>0WU72</t>
+  </si>
+  <si>
+    <t>3Vg02</t>
+  </si>
+  <si>
+    <t>Nz0Xs</t>
+  </si>
+  <si>
+    <t>rlDMd</t>
+  </si>
+  <si>
+    <t>jKQBo</t>
+  </si>
+  <si>
+    <t>33vRx</t>
+  </si>
+  <si>
+    <t>AYch1</t>
+  </si>
+  <si>
+    <t>o0cvi</t>
+  </si>
+  <si>
+    <t>Z5zBL</t>
+  </si>
+  <si>
+    <t>sLyrP</t>
+  </si>
+  <si>
+    <t>rB54t</t>
+  </si>
+  <si>
+    <t>1muyj</t>
+  </si>
+  <si>
+    <t>AwfaF</t>
+  </si>
+  <si>
+    <t>iwM5i</t>
+  </si>
+  <si>
+    <t>KN7kx</t>
+  </si>
+  <si>
+    <t>tPQ2H</t>
+  </si>
+  <si>
+    <t>93Fdl</t>
+  </si>
+  <si>
+    <t>JookL</t>
+  </si>
+  <si>
+    <t>iOG3D</t>
+  </si>
+  <si>
+    <t>vdQdG</t>
+  </si>
+  <si>
+    <t>iSbra</t>
   </si>
 </sst>
 </file>
@@ -434,7 +524,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,25 +561,115 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
